--- a/Code/Results/Cases/Case_0_193/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_193/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9848332212474135</v>
+        <v>1.017198638231408</v>
       </c>
       <c r="D2">
-        <v>0.9940048327910213</v>
+        <v>1.019259137241189</v>
       </c>
       <c r="E2">
-        <v>0.993388489621804</v>
+        <v>1.018627844743263</v>
       </c>
       <c r="F2">
-        <v>0.9608645434573575</v>
+        <v>1.015556486117394</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038462378821562</v>
+        <v>1.027201412240472</v>
       </c>
       <c r="J2">
-        <v>1.007477228680539</v>
+        <v>1.022414116398068</v>
       </c>
       <c r="K2">
-        <v>1.005548326558836</v>
+        <v>1.022102915582371</v>
       </c>
       <c r="L2">
-        <v>1.004940708293656</v>
+        <v>1.021473496824078</v>
       </c>
       <c r="M2">
-        <v>0.9728974326301373</v>
+        <v>1.018411290498982</v>
       </c>
       <c r="N2">
-        <v>1.006494534054428</v>
+        <v>1.011565174197355</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9891091293727028</v>
+        <v>1.018087425805349</v>
       </c>
       <c r="D3">
-        <v>0.9974306255018461</v>
+        <v>1.020017845863896</v>
       </c>
       <c r="E3">
-        <v>0.9967655294180353</v>
+        <v>1.019379810814981</v>
       </c>
       <c r="F3">
-        <v>0.9678895996333934</v>
+        <v>1.01708642831064</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039161487305393</v>
+        <v>1.027276365072362</v>
       </c>
       <c r="J3">
-        <v>1.009901158792696</v>
+        <v>1.022939005637651</v>
       </c>
       <c r="K3">
-        <v>1.008096487863752</v>
+        <v>1.022667740814182</v>
       </c>
       <c r="L3">
-        <v>1.007439963876929</v>
+        <v>1.022031462339788</v>
       </c>
       <c r="M3">
-        <v>0.9789505225235333</v>
+        <v>1.019744413467536</v>
       </c>
       <c r="N3">
-        <v>1.007310131860319</v>
+        <v>1.011740392504969</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C4">
-        <v>0.9918162974638048</v>
+        <v>1.018662635385054</v>
       </c>
       <c r="D4">
-        <v>0.9996047076551308</v>
+        <v>1.020509183122047</v>
       </c>
       <c r="E4">
-        <v>0.998909636147075</v>
+        <v>1.019866869715271</v>
       </c>
       <c r="F4">
-        <v>0.9723220880455773</v>
+        <v>1.01807644942963</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03959146180646</v>
+        <v>1.027323310069579</v>
       </c>
       <c r="J4">
-        <v>1.011431685408961</v>
+        <v>1.023278145264374</v>
       </c>
       <c r="K4">
-        <v>1.009707905849591</v>
+        <v>1.023032964237131</v>
       </c>
       <c r="L4">
-        <v>1.009021238738218</v>
+        <v>1.022392329977132</v>
       </c>
       <c r="M4">
-        <v>0.9827664525231233</v>
+        <v>1.020606602318464</v>
       </c>
       <c r="N4">
-        <v>1.007824949928607</v>
+        <v>1.011853555426933</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.992940649722532</v>
+        <v>1.018904478093647</v>
       </c>
       <c r="D5">
-        <v>1.000508854742143</v>
+        <v>1.020715836732619</v>
       </c>
       <c r="E5">
-        <v>0.9998015436100066</v>
+        <v>1.020071744883341</v>
       </c>
       <c r="F5">
-        <v>0.9741597904589802</v>
+        <v>1.018492670002252</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039766965304589</v>
+        <v>1.02734267321877</v>
       </c>
       <c r="J5">
-        <v>1.012066348357881</v>
+        <v>1.023420599768984</v>
       </c>
       <c r="K5">
-        <v>1.010376696084476</v>
+        <v>1.023186442311653</v>
       </c>
       <c r="L5">
-        <v>1.009677704067694</v>
+        <v>1.022543996688174</v>
       </c>
       <c r="M5">
-        <v>0.9843477052390539</v>
+        <v>1.020968967244689</v>
       </c>
       <c r="N5">
-        <v>1.008038385093007</v>
+        <v>1.01190107745994</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9931286425892905</v>
+        <v>1.018945085978464</v>
       </c>
       <c r="D6">
-        <v>1.000660098523443</v>
+        <v>1.020750540355014</v>
       </c>
       <c r="E6">
-        <v>0.9999507531446042</v>
+        <v>1.0201061510791</v>
       </c>
       <c r="F6">
-        <v>0.9744668791690696</v>
+        <v>1.018562556322634</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039796127686622</v>
+        <v>1.027345902520503</v>
       </c>
       <c r="J6">
-        <v>1.012172405342614</v>
+        <v>1.023444511471256</v>
       </c>
       <c r="K6">
-        <v>1.010488490252536</v>
+        <v>1.023212208314003</v>
       </c>
       <c r="L6">
-        <v>1.009787448850292</v>
+        <v>1.022569459715062</v>
       </c>
       <c r="M6">
-        <v>0.9846118904625911</v>
+        <v>1.02102980420192</v>
       </c>
       <c r="N6">
-        <v>1.008074049019334</v>
+        <v>1.011909053583837</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.991831374422031</v>
+        <v>1.018665866803051</v>
       </c>
       <c r="D7">
-        <v>0.9996168270912171</v>
+        <v>1.02051194406379</v>
       </c>
       <c r="E7">
-        <v>0.9989215906319903</v>
+        <v>1.019869606814159</v>
       </c>
       <c r="F7">
-        <v>0.9723467428045911</v>
+        <v>1.018082010921866</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039593827419337</v>
+        <v>1.027323570265181</v>
       </c>
       <c r="J7">
-        <v>1.01144019987478</v>
+        <v>1.023280049219634</v>
       </c>
       <c r="K7">
-        <v>1.009716875852531</v>
+        <v>1.023035015262353</v>
       </c>
       <c r="L7">
-        <v>1.009030042706383</v>
+        <v>1.022394356721042</v>
       </c>
       <c r="M7">
-        <v>0.9827876700426571</v>
+        <v>1.020611444641575</v>
       </c>
       <c r="N7">
-        <v>1.007827813496533</v>
+        <v>1.011854190621878</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9862909630885166</v>
+        <v>1.017498986235885</v>
       </c>
       <c r="D8">
-        <v>0.9951716528986612</v>
+        <v>1.019515462633087</v>
       </c>
       <c r="E8">
-        <v>0.9945384993978095</v>
+        <v>1.018881873923683</v>
       </c>
       <c r="F8">
-        <v>0.9632629962697191</v>
+        <v>1.016073530463887</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03870334756771</v>
+        <v>1.027227064543197</v>
       </c>
       <c r="J8">
-        <v>1.008304449538622</v>
+        <v>1.022591608229865</v>
       </c>
       <c r="K8">
-        <v>1.006417426888562</v>
+        <v>1.022293853677009</v>
       </c>
       <c r="L8">
-        <v>1.005792961961241</v>
+        <v>1.021662099454596</v>
       </c>
       <c r="M8">
-        <v>0.9749647124295985</v>
+        <v>1.018861917195906</v>
       </c>
       <c r="N8">
-        <v>1.00677290866821</v>
+        <v>1.011624434463434</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9760456348086526</v>
+        <v>1.015443613376349</v>
       </c>
       <c r="D9">
-        <v>0.9869943578068683</v>
+        <v>1.017762650095319</v>
       </c>
       <c r="E9">
-        <v>0.9864833206452392</v>
+        <v>1.01714512727862</v>
       </c>
       <c r="F9">
-        <v>0.9463215322931664</v>
+        <v>1.012534477933386</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036957650037281</v>
+        <v>1.027045120060954</v>
       </c>
       <c r="J9">
-        <v>1.002473595625493</v>
+        <v>1.021374683196139</v>
       </c>
       <c r="K9">
-        <v>1.000302026737412</v>
+        <v>1.020985891190543</v>
       </c>
       <c r="L9">
-        <v>0.999799570598961</v>
+        <v>1.020370464288221</v>
       </c>
       <c r="M9">
-        <v>0.9603499933015208</v>
+        <v>1.015775552657288</v>
       </c>
       <c r="N9">
-        <v>1.004810147620439</v>
+        <v>1.011217935524287</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9688522110067631</v>
+        <v>1.014073938767411</v>
       </c>
       <c r="D10">
-        <v>0.9812844177678366</v>
+        <v>1.016596249396817</v>
       </c>
       <c r="E10">
-        <v>0.9808643980156535</v>
+        <v>1.015989877589425</v>
       </c>
       <c r="F10">
-        <v>0.9342938852367748</v>
+        <v>1.010174917073378</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035667463970457</v>
+        <v>1.026915851886397</v>
       </c>
       <c r="J10">
-        <v>0.998358558367563</v>
+        <v>1.020560862302036</v>
       </c>
       <c r="K10">
-        <v>0.9960000147372684</v>
+        <v>1.020112638614536</v>
       </c>
       <c r="L10">
-        <v>0.9955879659795285</v>
+        <v>1.019508527237093</v>
       </c>
       <c r="M10">
-        <v>0.9499602688232264</v>
+        <v>1.013715396330912</v>
       </c>
       <c r="N10">
-        <v>1.003424396615921</v>
+        <v>1.010945843915559</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9656416101837415</v>
+        <v>1.013480994664971</v>
       </c>
       <c r="D11">
-        <v>0.9787439922625981</v>
+        <v>1.016091702103022</v>
       </c>
       <c r="E11">
-        <v>0.9783659301575406</v>
+        <v>1.01549026404492</v>
       </c>
       <c r="F11">
-        <v>0.9288850186663038</v>
+        <v>1.009153090336653</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0350768984057</v>
+        <v>1.026857990890147</v>
       </c>
       <c r="J11">
-        <v>0.9965170420891272</v>
+        <v>1.020207870652282</v>
       </c>
       <c r="K11">
-        <v>0.9940782157966748</v>
+        <v>1.019734212828705</v>
       </c>
       <c r="L11">
-        <v>0.993707700326203</v>
+        <v>1.019135103908121</v>
       </c>
       <c r="M11">
-        <v>0.9452853840064553</v>
+        <v>1.012822659103832</v>
       </c>
       <c r="N11">
-        <v>1.00280418394687</v>
+        <v>1.010827768040863</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9644337532212032</v>
+        <v>1.013260769189277</v>
       </c>
       <c r="D12">
-        <v>0.9777895243323055</v>
+        <v>1.015904368370464</v>
       </c>
       <c r="E12">
-        <v>0.9774274553744612</v>
+        <v>1.015304778813519</v>
       </c>
       <c r="F12">
-        <v>0.9268431634668567</v>
+        <v>1.008773514483149</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034852560115314</v>
+        <v>1.026836215547974</v>
       </c>
       <c r="J12">
-        <v>0.9958235228096638</v>
+        <v>1.020076663641128</v>
       </c>
       <c r="K12">
-        <v>0.9933549819228754</v>
+        <v>1.019593603680047</v>
       </c>
       <c r="L12">
-        <v>0.9930002747881561</v>
+        <v>1.018996368383926</v>
       </c>
       <c r="M12">
-        <v>0.9435202866613205</v>
+        <v>1.012490950395568</v>
       </c>
       <c r="N12">
-        <v>1.002570603946788</v>
+        <v>1.010783870708023</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9646935502495599</v>
+        <v>1.013308007376244</v>
       </c>
       <c r="D13">
-        <v>0.9779947621971046</v>
+        <v>1.015944548569586</v>
       </c>
       <c r="E13">
-        <v>0.977629243741601</v>
+        <v>1.015344561782846</v>
       </c>
       <c r="F13">
-        <v>0.9272826756775445</v>
+        <v>1.008854935965481</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034900909729656</v>
+        <v>1.02684089924283</v>
       </c>
       <c r="J13">
-        <v>0.9959727239560068</v>
+        <v>1.020104812068426</v>
       </c>
       <c r="K13">
-        <v>0.9935105520797475</v>
+        <v>1.019623766848696</v>
       </c>
       <c r="L13">
-        <v>0.9931524363738687</v>
+        <v>1.01902612895203</v>
       </c>
       <c r="M13">
-        <v>0.9439002396810897</v>
+        <v>1.012562107929457</v>
       </c>
       <c r="N13">
-        <v>1.002620855684645</v>
+        <v>1.010793288583959</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9655420859127956</v>
+        <v>1.01346279034172</v>
       </c>
       <c r="D14">
-        <v>0.9786653206194301</v>
+        <v>1.016076215451329</v>
       </c>
       <c r="E14">
-        <v>0.9782885720278279</v>
+        <v>1.015474929866423</v>
       </c>
       <c r="F14">
-        <v>0.9287169226260125</v>
+        <v>1.009121714998813</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035058457156057</v>
+        <v>1.026856196708801</v>
       </c>
       <c r="J14">
-        <v>0.996459912583604</v>
+        <v>1.020197026878501</v>
       </c>
       <c r="K14">
-        <v>0.9940186278849867</v>
+        <v>1.019722590947783</v>
       </c>
       <c r="L14">
-        <v>0.993649411225152</v>
+        <v>1.019123636585311</v>
       </c>
       <c r="M14">
-        <v>0.9451400781991049</v>
+        <v>1.012795242155926</v>
       </c>
       <c r="N14">
-        <v>1.002784942608255</v>
+        <v>1.010824140262285</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.966062841366314</v>
+        <v>1.013558159940474</v>
       </c>
       <c r="D15">
-        <v>0.9790770175813469</v>
+        <v>1.016157350065615</v>
       </c>
       <c r="E15">
-        <v>0.9786934046359064</v>
+        <v>1.015555266355525</v>
       </c>
       <c r="F15">
-        <v>0.9295961858492401</v>
+        <v>1.009286083027923</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035154862218208</v>
+        <v>1.026865584466091</v>
       </c>
       <c r="J15">
-        <v>0.9967588102148319</v>
+        <v>1.020253831521261</v>
       </c>
       <c r="K15">
-        <v>0.994330408974373</v>
+        <v>1.0197834737895</v>
       </c>
       <c r="L15">
-        <v>0.9939544038530196</v>
+        <v>1.01918371036299</v>
       </c>
       <c r="M15">
-        <v>0.9459001194613033</v>
+        <v>1.012938869610557</v>
       </c>
       <c r="N15">
-        <v>1.002885611730962</v>
+        <v>1.010843143875774</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9690631942374661</v>
+        <v>1.014113293358209</v>
       </c>
       <c r="D16">
-        <v>0.9814515328405872</v>
+        <v>1.016629745383291</v>
       </c>
       <c r="E16">
-        <v>0.9810287842767242</v>
+        <v>1.016023048363371</v>
       </c>
       <c r="F16">
-        <v>0.9346484083109506</v>
+        <v>1.010242729308241</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035705970449377</v>
+        <v>1.026919652199422</v>
       </c>
       <c r="J16">
-        <v>0.9984794720844119</v>
+        <v>1.020584276534528</v>
       </c>
       <c r="K16">
-        <v>0.9961262711662481</v>
+        <v>1.020137747162761</v>
       </c>
       <c r="L16">
-        <v>0.9957115181261392</v>
+        <v>1.019533305958094</v>
       </c>
       <c r="M16">
-        <v>0.9502666349592794</v>
+        <v>1.013774629709844</v>
       </c>
       <c r="N16">
-        <v>1.003465118524484</v>
+        <v>1.010953674789004</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9709189740489744</v>
+        <v>1.014461549932891</v>
       </c>
       <c r="D17">
-        <v>0.9829223768221877</v>
+        <v>1.01692620402631</v>
       </c>
       <c r="E17">
-        <v>0.9824757785642917</v>
+        <v>1.016316641436165</v>
       </c>
       <c r="F17">
-        <v>0.9377620294595339</v>
+        <v>1.010842771764093</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036043000326688</v>
+        <v>1.026953062471262</v>
       </c>
       <c r="J17">
-        <v>0.9995424598537338</v>
+        <v>1.020791394992847</v>
       </c>
       <c r="K17">
-        <v>0.997236614308337</v>
+        <v>1.020359892982586</v>
       </c>
       <c r="L17">
-        <v>0.9967982097752055</v>
+        <v>1.019752545078804</v>
       </c>
       <c r="M17">
-        <v>0.9529570283266079</v>
+        <v>1.014298695588502</v>
       </c>
       <c r="N17">
-        <v>1.00382310860088</v>
+        <v>1.011022938817354</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9719922407143103</v>
+        <v>1.014664695018996</v>
       </c>
       <c r="D18">
-        <v>0.9837737809593567</v>
+        <v>1.017099172682769</v>
       </c>
       <c r="E18">
-        <v>0.9833135154135288</v>
+        <v>1.016487948808224</v>
       </c>
       <c r="F18">
-        <v>0.9395589657955785</v>
+        <v>1.011192755053749</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036236518828524</v>
+        <v>1.026972368026338</v>
       </c>
       <c r="J18">
-        <v>1.00015676304094</v>
+        <v>1.020912145602683</v>
       </c>
       <c r="K18">
-        <v>0.9978786042383069</v>
+        <v>1.02048943775157</v>
       </c>
       <c r="L18">
-        <v>0.997426632793266</v>
+        <v>1.01988040433081</v>
       </c>
       <c r="M18">
-        <v>0.9545094612620592</v>
+        <v>1.014604309453199</v>
       </c>
       <c r="N18">
-        <v>1.004029984340069</v>
+        <v>1.011063314411713</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9723566662816852</v>
+        <v>1.0147339644278</v>
       </c>
       <c r="D19">
-        <v>0.9840630009780337</v>
+        <v>1.017158158873509</v>
       </c>
       <c r="E19">
-        <v>0.9835981158634447</v>
+        <v>1.016546370264165</v>
       </c>
       <c r="F19">
-        <v>0.9401684943777897</v>
+        <v>1.011312088563091</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036301988967059</v>
+        <v>1.026978919826362</v>
       </c>
       <c r="J19">
-        <v>1.000365269773911</v>
+        <v>1.020953308581456</v>
       </c>
       <c r="K19">
-        <v>0.9980965623815228</v>
+        <v>1.020533604218233</v>
       </c>
       <c r="L19">
-        <v>0.9976400030992377</v>
+        <v>1.019923997759349</v>
       </c>
       <c r="M19">
-        <v>0.955036008946337</v>
+        <v>1.014708505021613</v>
       </c>
       <c r="N19">
-        <v>1.004100200652157</v>
+        <v>1.01107707721155</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9707208220728379</v>
+        <v>1.014424183960361</v>
       </c>
       <c r="D20">
-        <v>0.9827652473392159</v>
+        <v>1.016894391710452</v>
       </c>
       <c r="E20">
-        <v>0.982321182530051</v>
+        <v>1.016285135518084</v>
       </c>
       <c r="F20">
-        <v>0.9374299696994542</v>
+        <v>1.010778394098917</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036007158535107</v>
+        <v>1.026949496697554</v>
       </c>
       <c r="J20">
-        <v>0.9994290066192784</v>
+        <v>1.020769179148488</v>
       </c>
       <c r="K20">
-        <v>0.9971180735256649</v>
+        <v>1.020336061848794</v>
       </c>
       <c r="L20">
-        <v>0.9966821827730856</v>
+        <v>1.019729024780772</v>
       </c>
       <c r="M20">
-        <v>0.9526701302032271</v>
+        <v>1.014242475026038</v>
       </c>
       <c r="N20">
-        <v>1.00378490088736</v>
+        <v>1.011015510021485</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9652926432395502</v>
+        <v>1.013417210052284</v>
       </c>
       <c r="D21">
-        <v>0.9784681624540099</v>
+        <v>1.016037440688802</v>
       </c>
       <c r="E21">
-        <v>0.9780947093697059</v>
+        <v>1.015436537128475</v>
       </c>
       <c r="F21">
-        <v>0.9282954993020341</v>
+        <v>1.009043155928453</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035012202277376</v>
+        <v>1.026851699801339</v>
       </c>
       <c r="J21">
-        <v>0.9963167143967363</v>
+        <v>1.020169874403401</v>
       </c>
       <c r="K21">
-        <v>0.9938692759823841</v>
+        <v>1.019693490952062</v>
       </c>
       <c r="L21">
-        <v>0.9935033175660429</v>
+        <v>1.019094923827971</v>
       </c>
       <c r="M21">
-        <v>0.9447757859535756</v>
+        <v>1.012726592911449</v>
       </c>
       <c r="N21">
-        <v>1.002736713068445</v>
+        <v>1.010815056279149</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9617907207138234</v>
+        <v>1.012784203523221</v>
       </c>
       <c r="D22">
-        <v>0.9757033402326475</v>
+        <v>1.015499090859211</v>
       </c>
       <c r="E22">
-        <v>0.975376660044653</v>
+        <v>1.014903530881369</v>
       </c>
       <c r="F22">
-        <v>0.9223612416929851</v>
+        <v>1.0079520016751</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034357741175487</v>
+        <v>1.02678857270313</v>
       </c>
       <c r="J22">
-        <v>0.9943046379818218</v>
+        <v>1.019792545986983</v>
       </c>
       <c r="K22">
-        <v>0.9917719891131896</v>
+        <v>1.019289221160267</v>
       </c>
       <c r="L22">
-        <v>0.9914522173571693</v>
+        <v>1.018696069067279</v>
       </c>
       <c r="M22">
-        <v>0.9396453456592739</v>
+        <v>1.011772879945684</v>
       </c>
       <c r="N22">
-        <v>1.002059031439273</v>
+        <v>1.010688799235961</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9636559166671199</v>
+        <v>1.01311976100789</v>
       </c>
       <c r="D23">
-        <v>0.9771752279979736</v>
+        <v>1.015784437474132</v>
       </c>
       <c r="E23">
-        <v>0.9768235180656354</v>
+        <v>1.015186036023295</v>
       </c>
       <c r="F23">
-        <v>0.9255261580901317</v>
+        <v>1.008530458471884</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034707487599826</v>
+        <v>1.02682219276131</v>
       </c>
       <c r="J23">
-        <v>0.9953767064610953</v>
+        <v>1.019992624301479</v>
       </c>
       <c r="K23">
-        <v>0.9928891692636512</v>
+        <v>1.01950355674962</v>
       </c>
       <c r="L23">
-        <v>0.9925446947454741</v>
+        <v>1.018907525532283</v>
       </c>
       <c r="M23">
-        <v>0.9423817099621349</v>
+        <v>1.012278521393974</v>
       </c>
       <c r="N23">
-        <v>1.002420113279304</v>
+        <v>1.010755751656801</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9708103867189751</v>
+        <v>1.014441067994937</v>
       </c>
       <c r="D24">
-        <v>0.982836267474404</v>
+        <v>1.016908766174174</v>
       </c>
       <c r="E24">
-        <v>0.9823910571571972</v>
+        <v>1.016299371502481</v>
       </c>
       <c r="F24">
-        <v>0.9375800723110221</v>
+        <v>1.010807483628345</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036023363357273</v>
+        <v>1.026951108479844</v>
       </c>
       <c r="J24">
-        <v>0.9994802888886585</v>
+        <v>1.020779217711683</v>
       </c>
       <c r="K24">
-        <v>0.9971716544381077</v>
+        <v>1.020346830202317</v>
       </c>
       <c r="L24">
-        <v>0.9967346271115232</v>
+        <v>1.019739652650383</v>
       </c>
       <c r="M24">
-        <v>0.9527998189576375</v>
+        <v>1.014267878877581</v>
       </c>
       <c r="N24">
-        <v>1.003802171271758</v>
+        <v>1.01101886685162</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9787552808803628</v>
+        <v>1.015974877015301</v>
       </c>
       <c r="D25">
-        <v>0.989151829812</v>
+        <v>1.018215420171924</v>
       </c>
       <c r="E25">
-        <v>0.9886076128194388</v>
+        <v>1.017593666566838</v>
       </c>
       <c r="F25">
-        <v>0.9508222443727891</v>
+        <v>1.013449420386482</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037430628382728</v>
+        <v>1.02709356374465</v>
       </c>
       <c r="J25">
-        <v>1.004019394669597</v>
+        <v>1.021689736196166</v>
       </c>
       <c r="K25">
-        <v>1.001920916804039</v>
+        <v>1.021324258019106</v>
       </c>
       <c r="L25">
-        <v>1.001385393390601</v>
+        <v>1.020704534393467</v>
       </c>
       <c r="M25">
-        <v>0.9642351786976133</v>
+        <v>1.016573888643944</v>
       </c>
       <c r="N25">
-        <v>1.005330603302706</v>
+        <v>1.011323218482173</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_193/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_193/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017198638231408</v>
+        <v>0.9848332212474135</v>
       </c>
       <c r="D2">
-        <v>1.019259137241189</v>
+        <v>0.9940048327910211</v>
       </c>
       <c r="E2">
-        <v>1.018627844743263</v>
+        <v>0.9933884896218038</v>
       </c>
       <c r="F2">
-        <v>1.015556486117394</v>
+        <v>0.9608645434573578</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027201412240472</v>
+        <v>1.038462378821562</v>
       </c>
       <c r="J2">
-        <v>1.022414116398068</v>
+        <v>1.007477228680539</v>
       </c>
       <c r="K2">
-        <v>1.022102915582371</v>
+        <v>1.005548326558836</v>
       </c>
       <c r="L2">
-        <v>1.021473496824078</v>
+        <v>1.004940708293655</v>
       </c>
       <c r="M2">
-        <v>1.018411290498982</v>
+        <v>0.9728974326301376</v>
       </c>
       <c r="N2">
-        <v>1.011565174197355</v>
+        <v>1.006494534054428</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018087425805349</v>
+        <v>0.9891091293727023</v>
       </c>
       <c r="D3">
-        <v>1.020017845863896</v>
+        <v>0.9974306255018456</v>
       </c>
       <c r="E3">
-        <v>1.019379810814981</v>
+        <v>0.9967655294180344</v>
       </c>
       <c r="F3">
-        <v>1.01708642831064</v>
+        <v>0.9678895996333925</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027276365072362</v>
+        <v>1.039161487305393</v>
       </c>
       <c r="J3">
-        <v>1.022939005637651</v>
+        <v>1.009901158792695</v>
       </c>
       <c r="K3">
-        <v>1.022667740814182</v>
+        <v>1.008096487863751</v>
       </c>
       <c r="L3">
-        <v>1.022031462339788</v>
+        <v>1.007439963876928</v>
       </c>
       <c r="M3">
-        <v>1.019744413467536</v>
+        <v>0.9789505225235324</v>
       </c>
       <c r="N3">
-        <v>1.011740392504969</v>
+        <v>1.007310131860319</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018662635385054</v>
+        <v>0.9918162974638052</v>
       </c>
       <c r="D4">
-        <v>1.020509183122047</v>
+        <v>0.9996047076551311</v>
       </c>
       <c r="E4">
-        <v>1.019866869715271</v>
+        <v>0.9989096361470753</v>
       </c>
       <c r="F4">
-        <v>1.01807644942963</v>
+        <v>0.9723220880455768</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027323310069579</v>
+        <v>1.03959146180646</v>
       </c>
       <c r="J4">
-        <v>1.023278145264374</v>
+        <v>1.011431685408962</v>
       </c>
       <c r="K4">
-        <v>1.023032964237131</v>
+        <v>1.009707905849591</v>
       </c>
       <c r="L4">
-        <v>1.022392329977132</v>
+        <v>1.009021238738219</v>
       </c>
       <c r="M4">
-        <v>1.020606602318464</v>
+        <v>0.9827664525231229</v>
       </c>
       <c r="N4">
-        <v>1.011853555426933</v>
+        <v>1.007824949928607</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018904478093647</v>
+        <v>0.992940649722532</v>
       </c>
       <c r="D5">
-        <v>1.020715836732619</v>
+        <v>1.000508854742143</v>
       </c>
       <c r="E5">
-        <v>1.020071744883341</v>
+        <v>0.9998015436100066</v>
       </c>
       <c r="F5">
-        <v>1.018492670002252</v>
+        <v>0.9741597904589806</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.02734267321877</v>
+        <v>1.039766965304589</v>
       </c>
       <c r="J5">
-        <v>1.023420599768984</v>
+        <v>1.012066348357881</v>
       </c>
       <c r="K5">
-        <v>1.023186442311653</v>
+        <v>1.010376696084476</v>
       </c>
       <c r="L5">
-        <v>1.022543996688174</v>
+        <v>1.009677704067694</v>
       </c>
       <c r="M5">
-        <v>1.020968967244689</v>
+        <v>0.9843477052390541</v>
       </c>
       <c r="N5">
-        <v>1.01190107745994</v>
+        <v>1.008038385093007</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018945085978464</v>
+        <v>0.9931286425892906</v>
       </c>
       <c r="D6">
-        <v>1.020750540355014</v>
+        <v>1.000660098523444</v>
       </c>
       <c r="E6">
-        <v>1.0201061510791</v>
+        <v>0.9999507531446041</v>
       </c>
       <c r="F6">
-        <v>1.018562556322634</v>
+        <v>0.9744668791690696</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027345902520503</v>
+        <v>1.039796127686622</v>
       </c>
       <c r="J6">
-        <v>1.023444511471256</v>
+        <v>1.012172405342614</v>
       </c>
       <c r="K6">
-        <v>1.023212208314003</v>
+        <v>1.010488490252536</v>
       </c>
       <c r="L6">
-        <v>1.022569459715062</v>
+        <v>1.009787448850292</v>
       </c>
       <c r="M6">
-        <v>1.02102980420192</v>
+        <v>0.9846118904625911</v>
       </c>
       <c r="N6">
-        <v>1.011909053583837</v>
+        <v>1.008074049019334</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018665866803051</v>
+        <v>0.9918313744220308</v>
       </c>
       <c r="D7">
-        <v>1.02051194406379</v>
+        <v>0.9996168270912175</v>
       </c>
       <c r="E7">
-        <v>1.019869606814159</v>
+        <v>0.9989215906319902</v>
       </c>
       <c r="F7">
-        <v>1.018082010921866</v>
+        <v>0.9723467428045908</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027323570265181</v>
+        <v>1.039593827419337</v>
       </c>
       <c r="J7">
-        <v>1.023280049219634</v>
+        <v>1.01144019987478</v>
       </c>
       <c r="K7">
-        <v>1.023035015262353</v>
+        <v>1.009716875852531</v>
       </c>
       <c r="L7">
-        <v>1.022394356721042</v>
+        <v>1.009030042706383</v>
       </c>
       <c r="M7">
-        <v>1.020611444641575</v>
+        <v>0.9827876700426568</v>
       </c>
       <c r="N7">
-        <v>1.011854190621878</v>
+        <v>1.007827813496533</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017498986235885</v>
+        <v>0.9862909630885156</v>
       </c>
       <c r="D8">
-        <v>1.019515462633087</v>
+        <v>0.9951716528986602</v>
       </c>
       <c r="E8">
-        <v>1.018881873923683</v>
+        <v>0.9945384993978086</v>
       </c>
       <c r="F8">
-        <v>1.016073530463887</v>
+        <v>0.9632629962697187</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027227064543197</v>
+        <v>1.03870334756771</v>
       </c>
       <c r="J8">
-        <v>1.022591608229865</v>
+        <v>1.00830444953862</v>
       </c>
       <c r="K8">
-        <v>1.022293853677009</v>
+        <v>1.006417426888561</v>
       </c>
       <c r="L8">
-        <v>1.021662099454596</v>
+        <v>1.00579296196124</v>
       </c>
       <c r="M8">
-        <v>1.018861917195906</v>
+        <v>0.9749647124295978</v>
       </c>
       <c r="N8">
-        <v>1.011624434463434</v>
+        <v>1.00677290866821</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015443613376349</v>
+        <v>0.9760456348086525</v>
       </c>
       <c r="D9">
-        <v>1.017762650095319</v>
+        <v>0.9869943578068682</v>
       </c>
       <c r="E9">
-        <v>1.01714512727862</v>
+        <v>0.986483320645239</v>
       </c>
       <c r="F9">
-        <v>1.012534477933386</v>
+        <v>0.9463215322931665</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027045120060954</v>
+        <v>1.036957650037281</v>
       </c>
       <c r="J9">
-        <v>1.021374683196139</v>
+        <v>1.002473595625492</v>
       </c>
       <c r="K9">
-        <v>1.020985891190543</v>
+        <v>1.000302026737412</v>
       </c>
       <c r="L9">
-        <v>1.020370464288221</v>
+        <v>0.9997995705989606</v>
       </c>
       <c r="M9">
-        <v>1.015775552657288</v>
+        <v>0.9603499933015208</v>
       </c>
       <c r="N9">
-        <v>1.011217935524287</v>
+        <v>1.004810147620438</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014073938767411</v>
+        <v>0.9688522110067637</v>
       </c>
       <c r="D10">
-        <v>1.016596249396817</v>
+        <v>0.9812844177678373</v>
       </c>
       <c r="E10">
-        <v>1.015989877589425</v>
+        <v>0.9808643980156539</v>
       </c>
       <c r="F10">
-        <v>1.010174917073378</v>
+        <v>0.9342938852367751</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026915851886397</v>
+        <v>1.035667463970458</v>
       </c>
       <c r="J10">
-        <v>1.020560862302036</v>
+        <v>0.9983585583675635</v>
       </c>
       <c r="K10">
-        <v>1.020112638614536</v>
+        <v>0.996000014737269</v>
       </c>
       <c r="L10">
-        <v>1.019508527237093</v>
+        <v>0.995587965979529</v>
       </c>
       <c r="M10">
-        <v>1.013715396330912</v>
+        <v>0.9499602688232268</v>
       </c>
       <c r="N10">
-        <v>1.010945843915559</v>
+        <v>1.003424396615921</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013480994664971</v>
+        <v>0.9656416101837415</v>
       </c>
       <c r="D11">
-        <v>1.016091702103022</v>
+        <v>0.9787439922625982</v>
       </c>
       <c r="E11">
-        <v>1.01549026404492</v>
+        <v>0.9783659301575407</v>
       </c>
       <c r="F11">
-        <v>1.009153090336653</v>
+        <v>0.9288850186663045</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026857990890147</v>
+        <v>1.0350768984057</v>
       </c>
       <c r="J11">
-        <v>1.020207870652282</v>
+        <v>0.9965170420891273</v>
       </c>
       <c r="K11">
-        <v>1.019734212828705</v>
+        <v>0.9940782157966749</v>
       </c>
       <c r="L11">
-        <v>1.019135103908121</v>
+        <v>0.993707700326203</v>
       </c>
       <c r="M11">
-        <v>1.012822659103832</v>
+        <v>0.9452853840064557</v>
       </c>
       <c r="N11">
-        <v>1.010827768040863</v>
+        <v>1.00280418394687</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.013260769189277</v>
+        <v>0.9644337532212036</v>
       </c>
       <c r="D12">
-        <v>1.015904368370464</v>
+        <v>0.9777895243323061</v>
       </c>
       <c r="E12">
-        <v>1.015304778813519</v>
+        <v>0.9774274553744612</v>
       </c>
       <c r="F12">
-        <v>1.008773514483149</v>
+        <v>0.9268431634668576</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026836215547974</v>
+        <v>1.034852560115314</v>
       </c>
       <c r="J12">
-        <v>1.020076663641128</v>
+        <v>0.9958235228096641</v>
       </c>
       <c r="K12">
-        <v>1.019593603680047</v>
+        <v>0.9933549819228759</v>
       </c>
       <c r="L12">
-        <v>1.018996368383926</v>
+        <v>0.9930002747881559</v>
       </c>
       <c r="M12">
-        <v>1.012490950395568</v>
+        <v>0.9435202866613212</v>
       </c>
       <c r="N12">
-        <v>1.010783870708023</v>
+        <v>1.002570603946788</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013308007376244</v>
+        <v>0.9646935502495601</v>
       </c>
       <c r="D13">
-        <v>1.015944548569586</v>
+        <v>0.9779947621971048</v>
       </c>
       <c r="E13">
-        <v>1.015344561782846</v>
+        <v>0.977629243741601</v>
       </c>
       <c r="F13">
-        <v>1.008854935965481</v>
+        <v>0.9272826756775444</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02684089924283</v>
+        <v>1.034900909729656</v>
       </c>
       <c r="J13">
-        <v>1.020104812068426</v>
+        <v>0.9959727239560069</v>
       </c>
       <c r="K13">
-        <v>1.019623766848696</v>
+        <v>0.9935105520797477</v>
       </c>
       <c r="L13">
-        <v>1.01902612895203</v>
+        <v>0.9931524363738687</v>
       </c>
       <c r="M13">
-        <v>1.012562107929457</v>
+        <v>0.9439002396810897</v>
       </c>
       <c r="N13">
-        <v>1.010793288583959</v>
+        <v>1.002620855684645</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01346279034172</v>
+        <v>0.9655420859127959</v>
       </c>
       <c r="D14">
-        <v>1.016076215451329</v>
+        <v>0.9786653206194303</v>
       </c>
       <c r="E14">
-        <v>1.015474929866423</v>
+        <v>0.9782885720278284</v>
       </c>
       <c r="F14">
-        <v>1.009121714998813</v>
+        <v>0.9287169226260125</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026856196708801</v>
+        <v>1.035058457156057</v>
       </c>
       <c r="J14">
-        <v>1.020197026878501</v>
+        <v>0.9964599125836043</v>
       </c>
       <c r="K14">
-        <v>1.019722590947783</v>
+        <v>0.9940186278849871</v>
       </c>
       <c r="L14">
-        <v>1.019123636585311</v>
+        <v>0.9936494112251525</v>
       </c>
       <c r="M14">
-        <v>1.012795242155926</v>
+        <v>0.9451400781991048</v>
       </c>
       <c r="N14">
-        <v>1.010824140262285</v>
+        <v>1.002784942608255</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013558159940474</v>
+        <v>0.9660628413663147</v>
       </c>
       <c r="D15">
-        <v>1.016157350065615</v>
+        <v>0.9790770175813476</v>
       </c>
       <c r="E15">
-        <v>1.015555266355525</v>
+        <v>0.978693404635907</v>
       </c>
       <c r="F15">
-        <v>1.009286083027923</v>
+        <v>0.9295961858492403</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026865584466091</v>
+        <v>1.035154862218208</v>
       </c>
       <c r="J15">
-        <v>1.020253831521261</v>
+        <v>0.9967588102148325</v>
       </c>
       <c r="K15">
-        <v>1.0197834737895</v>
+        <v>0.9943304089743734</v>
       </c>
       <c r="L15">
-        <v>1.01918371036299</v>
+        <v>0.9939544038530203</v>
       </c>
       <c r="M15">
-        <v>1.012938869610557</v>
+        <v>0.9459001194613035</v>
       </c>
       <c r="N15">
-        <v>1.010843143875774</v>
+        <v>1.002885611730962</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014113293358209</v>
+        <v>0.9690631942374657</v>
       </c>
       <c r="D16">
-        <v>1.016629745383291</v>
+        <v>0.9814515328405864</v>
       </c>
       <c r="E16">
-        <v>1.016023048363371</v>
+        <v>0.9810287842767238</v>
       </c>
       <c r="F16">
-        <v>1.010242729308241</v>
+        <v>0.93464840831095</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026919652199422</v>
+        <v>1.035705970449376</v>
       </c>
       <c r="J16">
-        <v>1.020584276534528</v>
+        <v>0.9984794720844115</v>
       </c>
       <c r="K16">
-        <v>1.020137747162761</v>
+        <v>0.9961262711662475</v>
       </c>
       <c r="L16">
-        <v>1.019533305958094</v>
+        <v>0.9957115181261387</v>
       </c>
       <c r="M16">
-        <v>1.013774629709844</v>
+        <v>0.9502666349592789</v>
       </c>
       <c r="N16">
-        <v>1.010953674789004</v>
+        <v>1.003465118524484</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014461549932891</v>
+        <v>0.9709189740489734</v>
       </c>
       <c r="D17">
-        <v>1.01692620402631</v>
+        <v>0.9829223768221866</v>
       </c>
       <c r="E17">
-        <v>1.016316641436165</v>
+        <v>0.9824757785642908</v>
       </c>
       <c r="F17">
-        <v>1.010842771764093</v>
+        <v>0.9377620294595328</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026953062471262</v>
+        <v>1.036043000326688</v>
       </c>
       <c r="J17">
-        <v>1.020791394992847</v>
+        <v>0.9995424598537329</v>
       </c>
       <c r="K17">
-        <v>1.020359892982586</v>
+        <v>0.997236614308336</v>
       </c>
       <c r="L17">
-        <v>1.019752545078804</v>
+        <v>0.9967982097752047</v>
       </c>
       <c r="M17">
-        <v>1.014298695588502</v>
+        <v>0.9529570283266069</v>
       </c>
       <c r="N17">
-        <v>1.011022938817354</v>
+        <v>1.003823108600879</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014664695018996</v>
+        <v>0.9719922407143107</v>
       </c>
       <c r="D18">
-        <v>1.017099172682769</v>
+        <v>0.983773780959357</v>
       </c>
       <c r="E18">
-        <v>1.016487948808224</v>
+        <v>0.983313515413529</v>
       </c>
       <c r="F18">
-        <v>1.011192755053749</v>
+        <v>0.9395589657955784</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026972368026338</v>
+        <v>1.036236518828524</v>
       </c>
       <c r="J18">
-        <v>1.020912145602683</v>
+        <v>1.000156763040941</v>
       </c>
       <c r="K18">
-        <v>1.02048943775157</v>
+        <v>0.9978786042383071</v>
       </c>
       <c r="L18">
-        <v>1.01988040433081</v>
+        <v>0.9974266327932659</v>
       </c>
       <c r="M18">
-        <v>1.014604309453199</v>
+        <v>0.954509461262059</v>
       </c>
       <c r="N18">
-        <v>1.011063314411713</v>
+        <v>1.004029984340069</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0147339644278</v>
+        <v>0.9723566662816846</v>
       </c>
       <c r="D19">
-        <v>1.017158158873509</v>
+        <v>0.9840630009780332</v>
       </c>
       <c r="E19">
-        <v>1.016546370264165</v>
+        <v>0.9835981158634445</v>
       </c>
       <c r="F19">
-        <v>1.011312088563091</v>
+        <v>0.9401684943777896</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026978919826362</v>
+        <v>1.036301988967059</v>
       </c>
       <c r="J19">
-        <v>1.020953308581456</v>
+        <v>1.000365269773911</v>
       </c>
       <c r="K19">
-        <v>1.020533604218233</v>
+        <v>0.9980965623815223</v>
       </c>
       <c r="L19">
-        <v>1.019923997759349</v>
+        <v>0.9976400030992375</v>
       </c>
       <c r="M19">
-        <v>1.014708505021613</v>
+        <v>0.9550360089463367</v>
       </c>
       <c r="N19">
-        <v>1.01107707721155</v>
+        <v>1.004100200652157</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014424183960361</v>
+        <v>0.9707208220728384</v>
       </c>
       <c r="D20">
-        <v>1.016894391710452</v>
+        <v>0.9827652473392162</v>
       </c>
       <c r="E20">
-        <v>1.016285135518084</v>
+        <v>0.9823211825300514</v>
       </c>
       <c r="F20">
-        <v>1.010778394098917</v>
+        <v>0.9374299696994548</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026949496697554</v>
+        <v>1.036007158535107</v>
       </c>
       <c r="J20">
-        <v>1.020769179148488</v>
+        <v>0.9994290066192788</v>
       </c>
       <c r="K20">
-        <v>1.020336061848794</v>
+        <v>0.9971180735256653</v>
       </c>
       <c r="L20">
-        <v>1.019729024780772</v>
+        <v>0.9966821827730861</v>
       </c>
       <c r="M20">
-        <v>1.014242475026038</v>
+        <v>0.9526701302032274</v>
       </c>
       <c r="N20">
-        <v>1.011015510021485</v>
+        <v>1.00378490088736</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013417210052284</v>
+        <v>0.9652926432395492</v>
       </c>
       <c r="D21">
-        <v>1.016037440688802</v>
+        <v>0.978468162454009</v>
       </c>
       <c r="E21">
-        <v>1.015436537128475</v>
+        <v>0.9780947093697047</v>
       </c>
       <c r="F21">
-        <v>1.009043155928453</v>
+        <v>0.9282954993020325</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026851699801339</v>
+        <v>1.035012202277375</v>
       </c>
       <c r="J21">
-        <v>1.020169874403401</v>
+        <v>0.9963167143967353</v>
       </c>
       <c r="K21">
-        <v>1.019693490952062</v>
+        <v>0.9938692759823834</v>
       </c>
       <c r="L21">
-        <v>1.019094923827971</v>
+        <v>0.9935033175660419</v>
       </c>
       <c r="M21">
-        <v>1.012726592911449</v>
+        <v>0.944775785953574</v>
       </c>
       <c r="N21">
-        <v>1.010815056279149</v>
+        <v>1.002736713068444</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.012784203523221</v>
+        <v>0.961790720713823</v>
       </c>
       <c r="D22">
-        <v>1.015499090859211</v>
+        <v>0.9757033402326473</v>
       </c>
       <c r="E22">
-        <v>1.014903530881369</v>
+        <v>0.975376660044653</v>
       </c>
       <c r="F22">
-        <v>1.0079520016751</v>
+        <v>0.9223612416929855</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02678857270313</v>
+        <v>1.034357741175487</v>
       </c>
       <c r="J22">
-        <v>1.019792545986983</v>
+        <v>0.9943046379818217</v>
       </c>
       <c r="K22">
-        <v>1.019289221160267</v>
+        <v>0.9917719891131896</v>
       </c>
       <c r="L22">
-        <v>1.018696069067279</v>
+        <v>0.9914522173571693</v>
       </c>
       <c r="M22">
-        <v>1.011772879945684</v>
+        <v>0.939645345659274</v>
       </c>
       <c r="N22">
-        <v>1.010688799235961</v>
+        <v>1.002059031439273</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01311976100789</v>
+        <v>0.963655916667119</v>
       </c>
       <c r="D23">
-        <v>1.015784437474132</v>
+        <v>0.9771752279979729</v>
       </c>
       <c r="E23">
-        <v>1.015186036023295</v>
+        <v>0.9768235180656345</v>
       </c>
       <c r="F23">
-        <v>1.008530458471884</v>
+        <v>0.9255261580901309</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02682219276131</v>
+        <v>1.034707487599826</v>
       </c>
       <c r="J23">
-        <v>1.019992624301479</v>
+        <v>0.9953767064610946</v>
       </c>
       <c r="K23">
-        <v>1.01950355674962</v>
+        <v>0.9928891692636505</v>
       </c>
       <c r="L23">
-        <v>1.018907525532283</v>
+        <v>0.9925446947454732</v>
       </c>
       <c r="M23">
-        <v>1.012278521393974</v>
+        <v>0.942381709962134</v>
       </c>
       <c r="N23">
-        <v>1.010755751656801</v>
+        <v>1.002420113279304</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014441067994937</v>
+        <v>0.9708103867189756</v>
       </c>
       <c r="D24">
-        <v>1.016908766174174</v>
+        <v>0.9828362674744042</v>
       </c>
       <c r="E24">
-        <v>1.016299371502481</v>
+        <v>0.9823910571571975</v>
       </c>
       <c r="F24">
-        <v>1.010807483628345</v>
+        <v>0.9375800723110228</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026951108479844</v>
+        <v>1.036023363357273</v>
       </c>
       <c r="J24">
-        <v>1.020779217711683</v>
+        <v>0.9994802888886587</v>
       </c>
       <c r="K24">
-        <v>1.020346830202317</v>
+        <v>0.9971716544381081</v>
       </c>
       <c r="L24">
-        <v>1.019739652650383</v>
+        <v>0.9967346271115233</v>
       </c>
       <c r="M24">
-        <v>1.014267878877581</v>
+        <v>0.9527998189576381</v>
       </c>
       <c r="N24">
-        <v>1.01101886685162</v>
+        <v>1.003802171271758</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015974877015301</v>
+        <v>0.9787552808803627</v>
       </c>
       <c r="D25">
-        <v>1.018215420171924</v>
+        <v>0.9891518298120001</v>
       </c>
       <c r="E25">
-        <v>1.017593666566838</v>
+        <v>0.9886076128194385</v>
       </c>
       <c r="F25">
-        <v>1.013449420386482</v>
+        <v>0.9508222443727889</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02709356374465</v>
+        <v>1.037430628382728</v>
       </c>
       <c r="J25">
-        <v>1.021689736196166</v>
+        <v>1.004019394669597</v>
       </c>
       <c r="K25">
-        <v>1.021324258019106</v>
+        <v>1.001920916804039</v>
       </c>
       <c r="L25">
-        <v>1.020704534393467</v>
+        <v>1.001385393390601</v>
       </c>
       <c r="M25">
-        <v>1.016573888643944</v>
+        <v>0.9642351786976131</v>
       </c>
       <c r="N25">
-        <v>1.011323218482173</v>
+        <v>1.005330603302706</v>
       </c>
     </row>
   </sheetData>
